--- a/biology/Botanique/Picramnia_guianensis/Picramnia_guianensis.xlsx
+++ b/biology/Botanique/Picramnia_guianensis/Picramnia_guianensis.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Picramnia guianensis est une espèce rare de petit arbre, endémique du plateau des Guyanes, appartenant à la famille des Picramniaceae (anciennement des Simaroubaceae).
-Il est connu au Suriname sous le nom de Taari (Trio)[4]. Il aurait été anciennement appelé Tariri chez les Kali'na de Guyane[1] et Brésillet bâtard[5],[6].
+Il est connu au Suriname sous le nom de Taari (Trio). Il aurait été anciennement appelé Tariri chez les Kali'na de Guyane et Brésillet bâtard,.
 </t>
         </is>
       </c>
@@ -512,7 +524,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Picramnia guianensis est un petit arbre ou arbuste haut de 1,2–7 m, glabre à légèrement pubérulent.
 les jeunes rameaux, pétiole et rachis sont densément pubescents apprimés.
@@ -530,7 +544,7 @@
 Les fleurs staminées (mâles) sont de couleur crème, avec des pétales longs de 1,5 à 2 mm, et des étamines longues d'environ 2,5 mm. Les fleurs pistillées (femelles) sont de couleur vert jaunâtre, avec des pétales sont longs de 0,5-0,8 mm, des staminodes peu visibles, et l'ovaire pubérulents à densément pubescent.
 Le fruit est un drupe jaunes à orange, densément pubescente (poils obtus, cylindriques à subclavés à clavés ou digitiformes), de forme obovoïde-globuleuse, longue de 0,9-1,7 cm pour 0,6-1,3 cm de large.
 Le pédicelle fructifère est long de 2-3 mm.
-Les calice a des lobes persistants, oblongs-triangulaires, longs de 1 mm[7],[8],[9].
+Les calice a des lobes persistants, oblongs-triangulaires, longs de 1 mm.
 </t>
         </is>
       </c>
@@ -559,9 +573,11 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Picramnia guianensis est une espèce endémique du plateau des Guyanes : Guyana, Suriname, Guyane et Amapá (Brésil). On soupçonne sa présence dans le Bolívar (Venezuela)[7].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Picramnia guianensis est une espèce endémique du plateau des Guyanes : Guyana, Suriname, Guyane et Amapá (Brésil). On soupçonne sa présence dans le Bolívar (Venezuela).
 </t>
         </is>
       </c>
@@ -590,11 +606,13 @@
           <t>Écologie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Picramnia guianensis est une espèce rare et discrète, poussant dans les forêts et les forêts broussailleuses de terre ferme des terres basses, autour de 50 à 800 m d'altitude[7],[9],[4].
-Picramnia guianensis est une espèce zoochore[10],[11].
-Picramnia guianensis produit des phytolithes issus de contenus vésiculaires, que l'on retrouve dans les sédiments anciens[12].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Picramnia guianensis est une espèce rare et discrète, poussant dans les forêts et les forêts broussailleuses de terre ferme des terres basses, autour de 50 à 800 m d'altitude.
+Picramnia guianensis est une espèce zoochore,.
+Picramnia guianensis produit des phytolithes issus de contenus vésiculaires, que l'on retrouve dans les sédiments anciens.
 </t>
         </is>
       </c>
@@ -623,12 +641,49 @@
           <t>Utilisation</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>(Fusée-Aublet) rapporte les propriétés tinctoriales des feuilles de Picramnia guianensis, utilisées chez les Galibi sur les poteries, les objets en bois, les étoffes, voiles et vêtements de coton, pour obtenir une couleur violette  ou bleu roi[1],[13],[14].
-Au Suriname les Trio emploient Picramnia guianensis à des fins médicinales/rituelles et technologiques, et en tirent des revenus[4].
-Extrait de la « Flore médicale des Antilles » (1822)
-En 1822, le botaniste Michel Étienne Descourtilz commente Picramnia guianensis ainsi [informations incertaines à considérer avec précaution au vu des connaissances de l'époque] :
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">(Fusée-Aublet) rapporte les propriétés tinctoriales des feuilles de Picramnia guianensis, utilisées chez les Galibi sur les poteries, les objets en bois, les étoffes, voiles et vêtements de coton, pour obtenir une couleur violette  ou bleu roi.
+Au Suriname les Trio emploient Picramnia guianensis à des fins médicinales/rituelles et technologiques, et en tirent des revenus.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Picramnia_guianensis</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Picramnia_guianensis</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Utilisation</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Extrait de la « Flore médicale des Antilles » (1822)</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>En 1822, le botaniste Michel Étienne Descourtilz commente Picramnia guianensis ainsi [informations incertaines à considérer avec précaution au vu des connaissances de l'époque] :
 « BRESILLOT BATARD. 
 ( Stomachique astringent. )
 Synonymie. 
@@ -649,37 +704,39 @@
 Les praticiens du pays font entrer l'écorce du Brésillot dans les tisanes astringentes. Mais j'avais à choisir dans tant d'espèces dont les vertus sont mieux conslatées que j'ai négligé l'emploi de celle-ci- Je laisse ce soin à mes successeurs.
 Mode d'administration.
 La dose de l'écorce du Brésillot est une once par deux livres d'eau. »
-— M.É. Descourtilz, 1822[5].</t>
+— M.É. Descourtilz, 1822.</t>
         </is>
       </c>
     </row>
-    <row r="7">
-      <c r="A7" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
         <is>
           <t>Picramnia_guianensis</t>
         </is>
       </c>
-      <c r="C7" t="inlineStr">
+      <c r="C8" t="inlineStr">
         <is>
           <t>Portail:Botanique/Articles liés</t>
         </is>
       </c>
-      <c r="D7" t="inlineStr">
+      <c r="D8" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/Picramnia_guianensis</t>
         </is>
       </c>
-      <c r="E7" t="inlineStr">
+      <c r="E8" t="inlineStr">
         <is>
           <t>Protologue</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>En 1775, le botaniste Aublet propose le protologue suivant[1] : 
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>En 1775, le botaniste Aublet propose le protologue suivant : 
 « TARIRI Guianenſis. (Tabula 390.)
 TARIRI arbor tinctoria ; foliis alternis, obſcurè violaceis. Bar. Franc. Equin. 106.
 Frutex decem-pedalis, ramos redos, e caudice emittens. Folia impari-pinnata, alterna; foliolis ternis, quaternis auc quinis, utrinque alternatim coſtæ cylindraceæ adnexis, inæqualitér ſubrotundis, acutis, ſubſeſſilibus, integerrimis, glabris, ad oras villoſis, primó viridibus, poſteà ſeneſcentibus, purpuro-violaceis, deciduis. Supra axiilam coſtæ folioſæ, corpus glandulosum obſervatur. 
